--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl4-Ccr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl4-Ccr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +543,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2400906666666667</v>
+        <v>0.8774723333333333</v>
       </c>
       <c r="H2">
-        <v>0.720272</v>
+        <v>2.632417</v>
       </c>
       <c r="I2">
-        <v>0.0002162447659744526</v>
+        <v>0.0007088393434259271</v>
       </c>
       <c r="J2">
-        <v>0.0002162447659744527</v>
+        <v>0.0007088393434259271</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +561,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.002632</v>
+        <v>1.454519666666667</v>
       </c>
       <c r="N2">
-        <v>0.007896</v>
+        <v>4.363559</v>
       </c>
       <c r="O2">
-        <v>6.230194780080539E-06</v>
+        <v>0.002411072527504041</v>
       </c>
       <c r="P2">
-        <v>6.230194780080539E-06</v>
+        <v>0.002411072527504041</v>
       </c>
       <c r="Q2">
-        <v>0.0006319186346666667</v>
+        <v>1.276300765789222</v>
       </c>
       <c r="R2">
-        <v>0.005687267712</v>
+        <v>11.486706892103</v>
       </c>
       <c r="S2">
-        <v>1.347247012193773E-09</v>
+        <v>1.709063067348255E-06</v>
       </c>
       <c r="T2">
-        <v>1.347247012193773E-09</v>
+        <v>1.709063067348255E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -602,16 +605,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2400906666666667</v>
+        <v>0.8774723333333333</v>
       </c>
       <c r="H3">
-        <v>0.720272</v>
+        <v>2.632417</v>
       </c>
       <c r="I3">
-        <v>0.0002162447659744526</v>
+        <v>0.0007088393434259271</v>
       </c>
       <c r="J3">
-        <v>0.0002162447659744527</v>
+        <v>0.0007088393434259271</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>58.61543533333333</v>
+        <v>138.9276553333333</v>
       </c>
       <c r="N3">
-        <v>175.846306</v>
+        <v>416.782966</v>
       </c>
       <c r="O3">
-        <v>0.1387483203821739</v>
+        <v>0.2302922818860134</v>
       </c>
       <c r="P3">
-        <v>0.1387483203821739</v>
+        <v>0.2302922818860133</v>
       </c>
       <c r="Q3">
-        <v>14.07301894613689</v>
+        <v>121.9051738898691</v>
       </c>
       <c r="R3">
-        <v>126.657170515232</v>
+        <v>1097.146565008822</v>
       </c>
       <c r="S3">
-        <v>3.000359807039157E-05</v>
+        <v>0.0001632402298881402</v>
       </c>
       <c r="T3">
-        <v>3.000359807039158E-05</v>
+        <v>0.0001632402298881402</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,16 +667,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2400906666666667</v>
+        <v>0.8774723333333333</v>
       </c>
       <c r="H4">
-        <v>0.720272</v>
+        <v>2.632417</v>
       </c>
       <c r="I4">
-        <v>0.0002162447659744526</v>
+        <v>0.0007088393434259271</v>
       </c>
       <c r="J4">
-        <v>0.0002162447659744527</v>
+        <v>0.0007088393434259271</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>335.2538503333333</v>
+        <v>417.8699646666667</v>
       </c>
       <c r="N4">
-        <v>1005.761551</v>
+        <v>1253.609894</v>
       </c>
       <c r="O4">
-        <v>0.7935778071233418</v>
+        <v>0.6926787000314772</v>
       </c>
       <c r="P4">
-        <v>0.7935778071233419</v>
+        <v>0.6926787000314772</v>
       </c>
       <c r="Q4">
-        <v>80.49132042909689</v>
+        <v>366.6693329259776</v>
       </c>
       <c r="R4">
-        <v>724.4218838618721</v>
+        <v>3300.023996333798</v>
       </c>
       <c r="S4">
-        <v>0.0001716070471839064</v>
+        <v>0.0004909979149354371</v>
       </c>
       <c r="T4">
-        <v>0.0001716070471839064</v>
+        <v>0.0004909979149354371</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,16 +729,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2400906666666667</v>
+        <v>0.8774723333333333</v>
       </c>
       <c r="H5">
-        <v>0.720272</v>
+        <v>2.632417</v>
       </c>
       <c r="I5">
-        <v>0.0002162447659744526</v>
+        <v>0.0007088393434259271</v>
       </c>
       <c r="J5">
-        <v>0.0002162447659744527</v>
+        <v>0.0007088393434259271</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.58678433333333</v>
+        <v>45.01451866666667</v>
       </c>
       <c r="N5">
-        <v>85.76035299999999</v>
+        <v>135.043556</v>
       </c>
       <c r="O5">
-        <v>0.06766764229970419</v>
+        <v>0.07461794555500532</v>
       </c>
       <c r="P5">
-        <v>0.06766764229970421</v>
+        <v>0.07461794555500531</v>
       </c>
       <c r="Q5">
-        <v>6.863420108446221</v>
+        <v>39.49899472831689</v>
       </c>
       <c r="R5">
-        <v>61.770780976016</v>
+        <v>355.490952554852</v>
       </c>
       <c r="S5">
-        <v>1.463277347314251E-05</v>
+        <v>5.289213553500155E-05</v>
       </c>
       <c r="T5">
-        <v>1.463277347314251E-05</v>
+        <v>5.289213553500154E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +776,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -794,10 +797,10 @@
         <v>0.254913</v>
       </c>
       <c r="I6">
-        <v>7.653164641808324E-05</v>
+        <v>6.864123866041489E-05</v>
       </c>
       <c r="J6">
-        <v>7.653164641808324E-05</v>
+        <v>6.864123866041489E-05</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +809,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.002632</v>
+        <v>1.454519666666667</v>
       </c>
       <c r="N6">
-        <v>0.007896</v>
+        <v>4.363559</v>
       </c>
       <c r="O6">
-        <v>6.230194780080539E-06</v>
+        <v>0.002411072527504041</v>
       </c>
       <c r="P6">
-        <v>6.230194780080539E-06</v>
+        <v>0.002411072527504041</v>
       </c>
       <c r="Q6">
-        <v>0.000223643672</v>
+        <v>0.1235919905963334</v>
       </c>
       <c r="R6">
-        <v>0.002012793048</v>
+        <v>1.112327915367</v>
       </c>
       <c r="S6">
-        <v>4.768070640249117E-10</v>
+        <v>1.654990047879746E-07</v>
       </c>
       <c r="T6">
-        <v>4.768070640249117E-10</v>
+        <v>1.654990047879746E-07</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +838,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -856,10 +859,10 @@
         <v>0.254913</v>
       </c>
       <c r="I7">
-        <v>7.653164641808324E-05</v>
+        <v>6.864123866041489E-05</v>
       </c>
       <c r="J7">
-        <v>7.653164641808324E-05</v>
+        <v>6.864123866041489E-05</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>58.61543533333333</v>
+        <v>138.9276553333333</v>
       </c>
       <c r="N7">
-        <v>175.846306</v>
+        <v>416.782966</v>
       </c>
       <c r="O7">
-        <v>0.1387483203821739</v>
+        <v>0.2302922818860134</v>
       </c>
       <c r="P7">
-        <v>0.1387483203821739</v>
+        <v>0.2302922818860133</v>
       </c>
       <c r="Q7">
-        <v>4.980612155708667</v>
+        <v>11.80482180132867</v>
       </c>
       <c r="R7">
-        <v>44.825509401378</v>
+        <v>106.243396211958</v>
       </c>
       <c r="S7">
-        <v>1.061863739659146E-05</v>
+        <v>1.580754748258938E-05</v>
       </c>
       <c r="T7">
-        <v>1.061863739659146E-05</v>
+        <v>1.580754748258938E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -918,10 +921,10 @@
         <v>0.254913</v>
       </c>
       <c r="I8">
-        <v>7.653164641808324E-05</v>
+        <v>6.864123866041489E-05</v>
       </c>
       <c r="J8">
-        <v>7.653164641808324E-05</v>
+        <v>6.864123866041489E-05</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>335.2538503333333</v>
+        <v>417.8699646666667</v>
       </c>
       <c r="N8">
-        <v>1005.761551</v>
+        <v>1253.609894</v>
       </c>
       <c r="O8">
-        <v>0.7935778071233418</v>
+        <v>0.6926787000314772</v>
       </c>
       <c r="P8">
-        <v>0.7935778071233419</v>
+        <v>0.6926787000314772</v>
       </c>
       <c r="Q8">
-        <v>28.48685491667367</v>
+        <v>35.50682876769134</v>
       </c>
       <c r="R8">
-        <v>256.381694250063</v>
+        <v>319.561458909222</v>
       </c>
       <c r="S8">
-        <v>6.073381614000145E-05</v>
+        <v>4.754632396384656E-05</v>
       </c>
       <c r="T8">
-        <v>6.073381614000146E-05</v>
+        <v>4.754632396384656E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -980,10 +983,10 @@
         <v>0.254913</v>
       </c>
       <c r="I9">
-        <v>7.653164641808324E-05</v>
+        <v>6.864123866041489E-05</v>
       </c>
       <c r="J9">
-        <v>7.653164641808324E-05</v>
+        <v>6.864123866041489E-05</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>28.58678433333333</v>
+        <v>45.01451866666667</v>
       </c>
       <c r="N9">
-        <v>85.76035299999999</v>
+        <v>135.043556</v>
       </c>
       <c r="O9">
-        <v>0.06766764229970419</v>
+        <v>0.07461794555500532</v>
       </c>
       <c r="P9">
-        <v>0.06766764229970421</v>
+        <v>0.07461794555500531</v>
       </c>
       <c r="Q9">
-        <v>2.429047651587667</v>
+        <v>3.824928665625333</v>
       </c>
       <c r="R9">
-        <v>21.861428864289</v>
+        <v>34.424357990628</v>
       </c>
       <c r="S9">
-        <v>5.178716074426294E-06</v>
+        <v>5.121868209190965E-06</v>
       </c>
       <c r="T9">
-        <v>5.178716074426295E-06</v>
+        <v>5.121868209190964E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1024,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1036,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>62.54623800000001</v>
+        <v>71.07177233333334</v>
       </c>
       <c r="H10">
-        <v>187.638714</v>
+        <v>213.215317</v>
       </c>
       <c r="I10">
-        <v>0.05633412071644775</v>
+        <v>0.05741317021985155</v>
       </c>
       <c r="J10">
-        <v>0.05633412071644776</v>
+        <v>0.05741317021985154</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1054,28 +1057,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.002632</v>
+        <v>1.454519666666667</v>
       </c>
       <c r="N10">
-        <v>0.007896</v>
+        <v>4.363559</v>
       </c>
       <c r="O10">
-        <v>6.230194780080539E-06</v>
+        <v>0.002411072527504041</v>
       </c>
       <c r="P10">
-        <v>6.230194780080539E-06</v>
+        <v>0.002411072527504041</v>
       </c>
       <c r="Q10">
-        <v>0.1646216984160001</v>
+        <v>103.3752906036893</v>
       </c>
       <c r="R10">
-        <v>1.481595285744</v>
+        <v>930.3776154332032</v>
       </c>
       <c r="S10">
-        <v>3.509725448280398E-07</v>
+        <v>0.0001384273174339972</v>
       </c>
       <c r="T10">
-        <v>3.509725448280398E-07</v>
+        <v>0.0001384273174339972</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1086,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1098,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>62.54623800000001</v>
+        <v>71.07177233333334</v>
       </c>
       <c r="H11">
-        <v>187.638714</v>
+        <v>213.215317</v>
       </c>
       <c r="I11">
-        <v>0.05633412071644775</v>
+        <v>0.05741317021985155</v>
       </c>
       <c r="J11">
-        <v>0.05633412071644776</v>
+        <v>0.05741317021985154</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>58.61543533333333</v>
+        <v>138.9276553333333</v>
       </c>
       <c r="N11">
-        <v>175.846306</v>
+        <v>416.782966</v>
       </c>
       <c r="O11">
-        <v>0.1387483203821739</v>
+        <v>0.2302922818860134</v>
       </c>
       <c r="P11">
-        <v>0.1387483203821739</v>
+        <v>0.2302922818860133</v>
       </c>
       <c r="Q11">
-        <v>3666.174968832277</v>
+        <v>9873.83469065447</v>
       </c>
       <c r="R11">
-        <v>32995.57471949049</v>
+        <v>88864.51221589024</v>
       </c>
       <c r="S11">
-        <v>0.007816264629613752</v>
+        <v>0.01322180998023972</v>
       </c>
       <c r="T11">
-        <v>0.007816264629613753</v>
+        <v>0.01322180998023972</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,13 +1148,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>62.54623800000001</v>
+        <v>71.07177233333334</v>
       </c>
       <c r="H12">
-        <v>187.638714</v>
+        <v>213.215317</v>
       </c>
       <c r="I12">
-        <v>0.05633412071644775</v>
+        <v>0.05741317021985155</v>
       </c>
       <c r="J12">
-        <v>0.05633412071644776</v>
+        <v>0.05741317021985154</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>335.2538503333333</v>
+        <v>417.8699646666667</v>
       </c>
       <c r="N12">
-        <v>1005.761551</v>
+        <v>1253.609894</v>
       </c>
       <c r="O12">
-        <v>0.7935778071233418</v>
+        <v>0.6926787000314772</v>
       </c>
       <c r="P12">
-        <v>0.7935778071233419</v>
+        <v>0.6926787000314772</v>
       </c>
       <c r="Q12">
-        <v>20968.86711336505</v>
+        <v>29698.75899372738</v>
       </c>
       <c r="R12">
-        <v>188719.8040202854</v>
+        <v>267288.8309435465</v>
       </c>
       <c r="S12">
-        <v>0.04470550798438023</v>
+        <v>0.03976888011257269</v>
       </c>
       <c r="T12">
-        <v>0.04470550798438024</v>
+        <v>0.03976888011257269</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,14 +1210,14 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1222,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>62.54623800000001</v>
+        <v>71.07177233333334</v>
       </c>
       <c r="H13">
-        <v>187.638714</v>
+        <v>213.215317</v>
       </c>
       <c r="I13">
-        <v>0.05633412071644775</v>
+        <v>0.05741317021985155</v>
       </c>
       <c r="J13">
-        <v>0.05633412071644776</v>
+        <v>0.05741317021985154</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>28.58678433333333</v>
+        <v>45.01451866666667</v>
       </c>
       <c r="N13">
-        <v>85.76035299999999</v>
+        <v>135.043556</v>
       </c>
       <c r="O13">
-        <v>0.06766764229970419</v>
+        <v>0.07461794555500532</v>
       </c>
       <c r="P13">
-        <v>0.06766764229970421</v>
+        <v>0.07461794555500531</v>
       </c>
       <c r="Q13">
-        <v>1787.995816567338</v>
+        <v>3199.261622371917</v>
       </c>
       <c r="R13">
-        <v>16091.96234910604</v>
+        <v>28793.35460134726</v>
       </c>
       <c r="S13">
-        <v>0.003811997129908942</v>
+        <v>0.004284052809605136</v>
       </c>
       <c r="T13">
-        <v>0.003811997129908943</v>
+        <v>0.004284052809605135</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1272,31 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>937.1581420000001</v>
+        <v>0.03596933333333333</v>
       </c>
       <c r="H14">
-        <v>2811.474426</v>
+        <v>0.107908</v>
       </c>
       <c r="I14">
-        <v>0.8440792218683062</v>
+        <v>2.905673222380989E-05</v>
       </c>
       <c r="J14">
-        <v>0.8440792218683063</v>
+        <v>2.905673222380989E-05</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1302,28 +1305,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.002632</v>
+        <v>1.454519666666667</v>
       </c>
       <c r="N14">
-        <v>0.007896</v>
+        <v>4.363559</v>
       </c>
       <c r="O14">
-        <v>6.230194780080539E-06</v>
+        <v>0.002411072527504041</v>
       </c>
       <c r="P14">
-        <v>6.230194780080539E-06</v>
+        <v>0.002411072527504041</v>
       </c>
       <c r="Q14">
-        <v>2.466600229744</v>
+        <v>0.05231810273022223</v>
       </c>
       <c r="R14">
-        <v>22.199402067696</v>
+        <v>0.4708629245720001</v>
       </c>
       <c r="S14">
-        <v>5.258777962058365E-06</v>
+        <v>7.005788880386941E-08</v>
       </c>
       <c r="T14">
-        <v>5.258777962058365E-06</v>
+        <v>7.00578888038694E-08</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1334,31 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>937.1581420000001</v>
+        <v>0.03596933333333333</v>
       </c>
       <c r="H15">
-        <v>2811.474426</v>
+        <v>0.107908</v>
       </c>
       <c r="I15">
-        <v>0.8440792218683062</v>
+        <v>2.905673222380989E-05</v>
       </c>
       <c r="J15">
-        <v>0.8440792218683063</v>
+        <v>2.905673222380989E-05</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>58.61543533333333</v>
+        <v>138.9276553333333</v>
       </c>
       <c r="N15">
-        <v>175.846306</v>
+        <v>416.782966</v>
       </c>
       <c r="O15">
-        <v>0.1387483203821739</v>
+        <v>0.2302922818860134</v>
       </c>
       <c r="P15">
-        <v>0.1387483203821739</v>
+        <v>0.2302922818860133</v>
       </c>
       <c r="Q15">
-        <v>54931.93246950782</v>
+        <v>4.997135143903111</v>
       </c>
       <c r="R15">
-        <v>494387.3922255704</v>
+        <v>44.974216295128</v>
       </c>
       <c r="S15">
-        <v>0.1171145743037198</v>
+        <v>6.691541167972034E-06</v>
       </c>
       <c r="T15">
-        <v>0.1171145743037198</v>
+        <v>6.691541167972033E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1396,31 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>937.1581420000001</v>
+        <v>0.03596933333333333</v>
       </c>
       <c r="H16">
-        <v>2811.474426</v>
+        <v>0.107908</v>
       </c>
       <c r="I16">
-        <v>0.8440792218683062</v>
+        <v>2.905673222380989E-05</v>
       </c>
       <c r="J16">
-        <v>0.8440792218683063</v>
+        <v>2.905673222380989E-05</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>335.2538503333333</v>
+        <v>417.8699646666667</v>
       </c>
       <c r="N16">
-        <v>1005.761551</v>
+        <v>1253.609894</v>
       </c>
       <c r="O16">
-        <v>0.7935778071233418</v>
+        <v>0.6926787000314772</v>
       </c>
       <c r="P16">
-        <v>0.7935778071233419</v>
+        <v>0.6926787000314772</v>
       </c>
       <c r="Q16">
-        <v>314185.8754767328</v>
+        <v>15.03050404908356</v>
       </c>
       <c r="R16">
-        <v>2827672.879290595</v>
+        <v>135.274536441752</v>
       </c>
       <c r="S16">
-        <v>0.6698425379286271</v>
+        <v>2.012697950395137E-05</v>
       </c>
       <c r="T16">
-        <v>0.6698425379286274</v>
+        <v>2.012697950395137E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1458,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>25</v>
       </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>937.1581420000001</v>
+        <v>0.03596933333333333</v>
       </c>
       <c r="H17">
-        <v>2811.474426</v>
+        <v>0.107908</v>
       </c>
       <c r="I17">
-        <v>0.8440792218683062</v>
+        <v>2.905673222380989E-05</v>
       </c>
       <c r="J17">
-        <v>0.8440792218683063</v>
+        <v>2.905673222380989E-05</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>28.58678433333333</v>
+        <v>45.01451866666667</v>
       </c>
       <c r="N17">
-        <v>85.76035299999999</v>
+        <v>135.043556</v>
       </c>
       <c r="O17">
-        <v>0.06766764229970419</v>
+        <v>0.07461794555500532</v>
       </c>
       <c r="P17">
-        <v>0.06766764229970421</v>
+        <v>0.07461794555500531</v>
       </c>
       <c r="Q17">
-        <v>26790.33769158138</v>
+        <v>1.619142226760889</v>
       </c>
       <c r="R17">
-        <v>241113.0392242324</v>
+        <v>14.572280040848</v>
       </c>
       <c r="S17">
-        <v>0.0571168508579972</v>
+        <v>2.168153663082615E-06</v>
       </c>
       <c r="T17">
-        <v>0.05711685085799722</v>
+        <v>2.168153663082615E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1520,10 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
         <v>20</v>
@@ -1532,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>110.2432883333333</v>
+        <v>1112.75885</v>
       </c>
       <c r="H18">
-        <v>330.729865</v>
+        <v>3338.27655</v>
       </c>
       <c r="I18">
-        <v>0.09929388100285352</v>
+        <v>0.8989084016233635</v>
       </c>
       <c r="J18">
-        <v>0.09929388100285354</v>
+        <v>0.8989084016233634</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1550,28 +1553,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.002632</v>
+        <v>1.454519666666667</v>
       </c>
       <c r="N18">
-        <v>0.007896</v>
+        <v>4.363559</v>
       </c>
       <c r="O18">
-        <v>6.230194780080539E-06</v>
+        <v>0.002411072527504041</v>
       </c>
       <c r="P18">
-        <v>6.230194780080539E-06</v>
+        <v>0.002411072527504041</v>
       </c>
       <c r="Q18">
-        <v>0.2901603348933334</v>
+        <v>1618.529631582384</v>
       </c>
       <c r="R18">
-        <v>2.61144301404</v>
+        <v>14566.76668424145</v>
       </c>
       <c r="S18">
-        <v>6.186202191179163E-07</v>
+        <v>0.002167333351896661</v>
       </c>
       <c r="T18">
-        <v>6.186202191179164E-07</v>
+        <v>0.00216733335189666</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,10 +1582,10 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1594,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>110.2432883333333</v>
+        <v>1112.75885</v>
       </c>
       <c r="H19">
-        <v>330.729865</v>
+        <v>3338.27655</v>
       </c>
       <c r="I19">
-        <v>0.09929388100285352</v>
+        <v>0.8989084016233635</v>
       </c>
       <c r="J19">
-        <v>0.09929388100285354</v>
+        <v>0.8989084016233634</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>58.61543533333333</v>
+        <v>138.9276553333333</v>
       </c>
       <c r="N19">
-        <v>175.846306</v>
+        <v>416.782966</v>
       </c>
       <c r="O19">
-        <v>0.1387483203821739</v>
+        <v>0.2302922818860134</v>
       </c>
       <c r="P19">
-        <v>0.1387483203821739</v>
+        <v>0.2302922818860133</v>
       </c>
       <c r="Q19">
-        <v>6461.958338236521</v>
+        <v>154592.9779819164</v>
       </c>
       <c r="R19">
-        <v>58157.62504412869</v>
+        <v>1391336.801837248</v>
       </c>
       <c r="S19">
-        <v>0.01377685921337337</v>
+        <v>0.2070116670163533</v>
       </c>
       <c r="T19">
-        <v>0.01377685921337338</v>
+        <v>0.2070116670163533</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,13 +1644,13 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1656,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>110.2432883333333</v>
+        <v>1112.75885</v>
       </c>
       <c r="H20">
-        <v>330.729865</v>
+        <v>3338.27655</v>
       </c>
       <c r="I20">
-        <v>0.09929388100285352</v>
+        <v>0.8989084016233635</v>
       </c>
       <c r="J20">
-        <v>0.09929388100285354</v>
+        <v>0.8989084016233634</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>335.2538503333333</v>
+        <v>417.8699646666667</v>
       </c>
       <c r="N20">
-        <v>1005.761551</v>
+        <v>1253.609894</v>
       </c>
       <c r="O20">
-        <v>0.7935778071233418</v>
+        <v>0.6926787000314772</v>
       </c>
       <c r="P20">
-        <v>0.7935778071233419</v>
+        <v>0.6926787000314772</v>
       </c>
       <c r="Q20">
-        <v>36959.48688715785</v>
+        <v>464988.5013320207</v>
       </c>
       <c r="R20">
-        <v>332635.3819844206</v>
+        <v>4184896.511988187</v>
       </c>
       <c r="S20">
-        <v>0.07879742034701055</v>
+        <v>0.6226547030838445</v>
       </c>
       <c r="T20">
-        <v>0.07879742034701057</v>
+        <v>0.6226547030838444</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1706,309 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1112.75885</v>
+      </c>
+      <c r="H21">
+        <v>3338.27655</v>
+      </c>
+      <c r="I21">
+        <v>0.8989084016233635</v>
+      </c>
+      <c r="J21">
+        <v>0.8989084016233634</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>45.01451866666667</v>
+      </c>
+      <c r="N21">
+        <v>135.043556</v>
+      </c>
+      <c r="O21">
+        <v>0.07461794555500532</v>
+      </c>
+      <c r="P21">
+        <v>0.07461794555500531</v>
+      </c>
+      <c r="Q21">
+        <v>50090.30402482354</v>
+      </c>
+      <c r="R21">
+        <v>450812.7362234119</v>
+      </c>
+      <c r="S21">
+        <v>0.067074698171269</v>
+      </c>
+      <c r="T21">
+        <v>0.06707469817126897</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>53.07112033333333</v>
+      </c>
+      <c r="H22">
+        <v>159.213361</v>
+      </c>
+      <c r="I22">
+        <v>0.04287189084247485</v>
+      </c>
+      <c r="J22">
+        <v>0.04287189084247484</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>1.454519666666667</v>
+      </c>
+      <c r="N22">
+        <v>4.363559</v>
+      </c>
+      <c r="O22">
+        <v>0.002411072527504041</v>
+      </c>
+      <c r="P22">
+        <v>0.002411072527504041</v>
+      </c>
+      <c r="Q22">
+        <v>77.19298825686657</v>
+      </c>
+      <c r="R22">
+        <v>694.736894311799</v>
+      </c>
+      <c r="S22">
+        <v>0.0001033672382124432</v>
+      </c>
+      <c r="T22">
+        <v>0.0001033672382124432</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>53.07112033333333</v>
+      </c>
+      <c r="H23">
+        <v>159.213361</v>
+      </c>
+      <c r="I23">
+        <v>0.04287189084247485</v>
+      </c>
+      <c r="J23">
+        <v>0.04287189084247484</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>138.9276553333333</v>
+      </c>
+      <c r="N23">
+        <v>416.782966</v>
+      </c>
+      <c r="O23">
+        <v>0.2302922818860134</v>
+      </c>
+      <c r="P23">
+        <v>0.2302922818860133</v>
+      </c>
+      <c r="Q23">
+        <v>7373.046313823191</v>
+      </c>
+      <c r="R23">
+        <v>66357.41682440872</v>
+      </c>
+      <c r="S23">
+        <v>0.009873065570881613</v>
+      </c>
+      <c r="T23">
+        <v>0.00987306557088161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>110.2432883333333</v>
-      </c>
-      <c r="H21">
-        <v>330.729865</v>
-      </c>
-      <c r="I21">
-        <v>0.09929388100285352</v>
-      </c>
-      <c r="J21">
-        <v>0.09929388100285354</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>28.58678433333333</v>
-      </c>
-      <c r="N21">
-        <v>85.76035299999999</v>
-      </c>
-      <c r="O21">
-        <v>0.06766764229970419</v>
-      </c>
-      <c r="P21">
-        <v>0.06766764229970421</v>
-      </c>
-      <c r="Q21">
-        <v>3151.501107782482</v>
-      </c>
-      <c r="R21">
-        <v>28363.50997004235</v>
-      </c>
-      <c r="S21">
-        <v>0.006718982822250486</v>
-      </c>
-      <c r="T21">
-        <v>0.006718982822250488</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>53.07112033333333</v>
+      </c>
+      <c r="H24">
+        <v>159.213361</v>
+      </c>
+      <c r="I24">
+        <v>0.04287189084247485</v>
+      </c>
+      <c r="J24">
+        <v>0.04287189084247484</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>417.8699646666667</v>
+      </c>
+      <c r="N24">
+        <v>1253.609894</v>
+      </c>
+      <c r="O24">
+        <v>0.6926787000314772</v>
+      </c>
+      <c r="P24">
+        <v>0.6926787000314772</v>
+      </c>
+      <c r="Q24">
+        <v>22176.82717851042</v>
+      </c>
+      <c r="R24">
+        <v>199591.4446065938</v>
+      </c>
+      <c r="S24">
+        <v>0.02969644561665687</v>
+      </c>
+      <c r="T24">
+        <v>0.02969644561665687</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>53.07112033333333</v>
+      </c>
+      <c r="H25">
+        <v>159.213361</v>
+      </c>
+      <c r="I25">
+        <v>0.04287189084247485</v>
+      </c>
+      <c r="J25">
+        <v>0.04287189084247484</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>45.01451866666667</v>
+      </c>
+      <c r="N25">
+        <v>135.043556</v>
+      </c>
+      <c r="O25">
+        <v>0.07461794555500532</v>
+      </c>
+      <c r="P25">
+        <v>0.07461794555500531</v>
+      </c>
+      <c r="Q25">
+        <v>2388.970936905746</v>
+      </c>
+      <c r="R25">
+        <v>21500.73843215171</v>
+      </c>
+      <c r="S25">
+        <v>0.003199012416723919</v>
+      </c>
+      <c r="T25">
+        <v>0.003199012416723919</v>
       </c>
     </row>
   </sheetData>
